--- a/xlsx/保民官_intext.xlsx
+++ b/xlsx/保民官_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="394">
   <si>
     <t>保民官</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>羅馬共和國</t>
+    <t>罗马共和国</t>
   </si>
   <si>
     <t>政策_政策_政治_保民官</t>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>軍事</t>
+    <t>军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%94%BF</t>
@@ -53,31 +53,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC</t>
   </si>
   <si>
-    <t>羅馬</t>
+    <t>罗马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%B4%E6%97%8F</t>
   </si>
   <si>
-    <t>貴族</t>
+    <t>贵族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E7%9A%87%E5%B8%9D</t>
   </si>
   <si>
-    <t>羅馬皇帝</t>
+    <t>罗马皇帝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%8F%A4%E6%96%AF%E9%83%BD</t>
   </si>
   <si>
-    <t>奧古斯都</t>
+    <t>奥古斯都</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E8%BB%8D%E5%9C%98</t>
   </si>
   <si>
-    <t>羅馬軍團</t>
+    <t>罗马军团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%83%E8%80%81%E9%99%A2</t>
@@ -95,19 +95,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%B7%E6%94%BF%E5%AE%98</t>
   </si>
   <si>
-    <t>執政官</t>
+    <t>执政官</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A8%8E%E5%A3%AB%E7%B5%B1%E9%A0%98</t>
   </si>
   <si>
-    <t>騎士統領</t>
+    <t>骑士统领</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%85%83%E8%80%81%E9%99%A2</t>
   </si>
   <si>
-    <t>羅馬元老院</t>
+    <t>罗马元老院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BD%97%E9%A9%AC</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>羅馬歷史</t>
+    <t>罗马历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E7%9A%84%E5%BB%BA%E7%AB%8B</t>
@@ -143,9 +143,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
-    <t>罗马共和国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%B8%9D%E5%9B%BD</t>
   </si>
   <si>
@@ -251,13 +248,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%8B%99%E5%AE%98_(%E7%BE%85%E9%A6%AC)</t>
   </si>
   <si>
-    <t>政務官 (羅馬)</t>
+    <t>政务官 (罗马)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B8%9D%E5%9C%8B%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>羅馬帝國政府</t>
+    <t>罗马帝国政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%BB%B7</t>
@@ -287,13 +284,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E7%9A%87%E5%B8%9D</t>
   </si>
   <si>
-    <t>罗马皇帝</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%8A%A0%E5%9C%96%E6%96%AF</t>
   </si>
   <si>
-    <t>雷加圖斯</t>
+    <t>雷加图斯</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Dux</t>
@@ -323,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%8D%81%E5%85%AD%E4%BA%BA%E5%9C%98</t>
   </si>
   <si>
-    <t>二十六人團</t>
+    <t>二十六人团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%80%E6%96%A7%E6%89%8B</t>
@@ -365,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%8F%A4%E6%96%AF%E9%83%BD_(%E7%A8%B1%E8%99%9F)</t>
   </si>
   <si>
-    <t>奧古斯都 (稱號)</t>
+    <t>奥古斯都 (称号)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E5%B8%9D%E5%85%B1%E6%B2%BB%E5%88%B6</t>
@@ -425,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E7%B8%BD%E7%9D%A3</t>
   </si>
   <si>
-    <t>羅馬總督</t>
+    <t>罗马总督</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81%E5%AE%98</t>
@@ -437,13 +431,10 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AA%91%E5%A3%AB%E7%BB%9F%E9%A2%86</t>
   </si>
   <si>
-    <t>骑士统领</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%BA%BA%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>十人委員會</t>
+    <t>十人委员会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Tribuni_militum_consulari_potestate</t>
@@ -455,7 +446,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E9%A0%AD%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>三頭政治</t>
+    <t>三头政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%9B%BD%E7%8E%8B</t>
@@ -533,7 +524,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%B0%91_(%E5%8F%A4%E7%BE%85%E9%A6%AC)</t>
   </si>
   <si>
-    <t>平民 (古羅馬)</t>
+    <t>平民 (古罗马)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Conflict_of_the_Orders</t>
@@ -593,7 +584,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BE%85%E9%A6%AC%E5%90%8C%E6%80%A7%E6%88%80</t>
   </si>
   <si>
-    <t>古羅馬同性戀</t>
+    <t>古罗马同性恋</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Slavery_in_ancient_Rome</t>
@@ -617,7 +608,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E6%88%B0%E5%BD%B9%E5%8F%B2</t>
   </si>
   <si>
-    <t>羅馬戰役史</t>
+    <t>罗马战役史</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/%E5%8F%A4%E7%BD%97%E9%A9%AC%E5%86%9B%E4%BA%8B%E7%A7%91%E6%8A%80%E5%8F%B2</t>
@@ -665,15 +656,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E9%99%B8%E8%BB%8D</t>
   </si>
   <si>
-    <t>羅馬陸軍</t>
+    <t>罗马陆军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%86%9B%E5%9B%A2</t>
   </si>
   <si>
-    <t>罗马军团</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Roman_military_personal_equipment</t>
   </si>
   <si>
@@ -689,7 +677,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E6%B5%B7%E8%BB%8D</t>
   </si>
   <si>
-    <t>羅馬海軍</t>
+    <t>罗马海军</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Auxiliaries_(Roman_military)</t>
@@ -749,7 +737,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BE%85%E9%A6%AC%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>古羅馬文化</t>
+    <t>古罗马文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BD%97%E9%A9%AC%E6%96%87%E5%AD%A6</t>
@@ -761,13 +749,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BE%85%E9%A6%AC%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>古羅馬建築</t>
+    <t>古罗马建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BE%85%E9%A6%AC%E5%AE%97%E6%95%99</t>
   </si>
   <si>
-    <t>古羅馬宗教</t>
+    <t>古罗马宗教</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Roman_funerals_and_burial</t>
@@ -869,7 +857,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E9%81%93%E8%B7%AF</t>
   </si>
   <si>
-    <t>羅馬道路</t>
+    <t>罗马道路</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Roman_bridge</t>
@@ -905,7 +893,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BE%85%E9%A6%AC%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>古羅馬農業</t>
+    <t>古罗马农业</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Roman_commerce</t>
@@ -953,7 +941,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E6%8B%89%E4%B8%81%E8%AA%9E</t>
   </si>
   <si>
-    <t>古典拉丁語</t>
+    <t>古典拉丁语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E4%BF%97%E6%8B%89%E4%B8%81%E8%AF%AD</t>
@@ -1049,7 +1037,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E5%9D%8E</t>
   </si>
   <si>
-    <t>盧坎</t>
+    <t>卢坎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E5%85%8B%E8%8E%B1%E4%BF%AE</t>
@@ -1067,13 +1055,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E7%B6%AD%E5%BE%B7</t>
   </si>
   <si>
-    <t>奧維德</t>
+    <t>奥维德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E5%8E%84%E6%96%AF%C2%B7%E4%BD%A9%E7%89%B9%E7%BE%85%E5%B0%BC%E7%83%8F%E6%96%AF%C2%B7%E9%98%BF%E7%88%BE%E6%AF%94%E7%89%B9</t>
   </si>
   <si>
-    <t>蓋厄斯·佩特羅尼烏斯·阿爾比特</t>
+    <t>盖厄斯·佩特罗尼乌斯·阿尔比特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E5%8A%B3%E5%9B%BE%E6%96%AF</t>
@@ -1115,7 +1103,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%85%A7%E5%8D%A1</t>
   </si>
   <si>
-    <t>塞內卡</t>
+    <t>塞内卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A1%94%E6%8F%90%E4%B9%8C%E6%96%AF</t>
@@ -1151,7 +1139,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BA%AB%E6%96%AF%C2%B7%E7%89%B9%E5%80%AB%E6%8F%90%E7%83%8F%E6%96%AF%C2%B7%E7%93%A6%E7%BE%85</t>
   </si>
   <si>
-    <t>馬庫斯·特倫提烏斯·瓦羅</t>
+    <t>马库斯·特伦提乌斯·瓦罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%90%89%E5%B0%94</t>
@@ -2159,7 +2147,7 @@
         <v>41</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="G21" t="n">
         <v>3</v>
@@ -2185,10 +2173,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>7</v>
@@ -2214,10 +2202,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -2243,10 +2231,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -2272,10 +2260,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -2301,10 +2289,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -2330,10 +2318,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -2359,10 +2347,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -2388,10 +2376,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>6</v>
@@ -2417,10 +2405,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2446,10 +2434,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2475,10 +2463,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2504,10 +2492,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2533,10 +2521,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2591,10 +2579,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
         <v>69</v>
-      </c>
-      <c r="F36" t="s">
-        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2620,10 +2608,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
         <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2649,10 +2637,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
         <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2678,10 +2666,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
         <v>75</v>
-      </c>
-      <c r="F39" t="s">
-        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2707,10 +2695,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s">
         <v>77</v>
-      </c>
-      <c r="F40" t="s">
-        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -2736,10 +2724,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
         <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2765,10 +2753,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
         <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2794,10 +2782,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -2823,10 +2811,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2852,10 +2840,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -2881,10 +2869,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F46" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="G46" t="n">
         <v>4</v>
@@ -2910,10 +2898,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2939,10 +2927,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F48" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2968,10 +2956,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F49" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2997,10 +2985,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3026,10 +3014,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3055,10 +3043,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F52" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3084,10 +3072,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F53" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3113,10 +3101,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F54" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3142,10 +3130,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3171,10 +3159,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3200,10 +3188,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F57" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3229,10 +3217,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3258,10 +3246,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F59" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3287,10 +3275,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3316,10 +3304,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3345,10 +3333,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3374,10 +3362,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3403,10 +3391,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3432,10 +3420,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3461,10 +3449,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -3490,10 +3478,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3519,10 +3507,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3548,10 +3536,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -3577,10 +3565,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3606,10 +3594,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3635,10 +3623,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3664,10 +3652,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3693,10 +3681,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3722,10 +3710,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3751,10 +3739,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3780,10 +3768,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G77" t="n">
         <v>4</v>
@@ -3809,10 +3797,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3838,10 +3826,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3867,10 +3855,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3896,10 +3884,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3925,10 +3913,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3954,10 +3942,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3983,10 +3971,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4012,10 +4000,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4041,10 +4029,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4070,10 +4058,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G87" t="n">
         <v>14</v>
@@ -4099,10 +4087,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4128,10 +4116,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4157,10 +4145,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4186,10 +4174,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4215,10 +4203,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
@@ -4244,10 +4232,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4273,10 +4261,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4302,10 +4290,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4331,10 +4319,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4360,10 +4348,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4389,10 +4377,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4418,10 +4406,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4447,10 +4435,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4476,10 +4464,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4505,10 +4493,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4534,10 +4522,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4563,10 +4551,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4592,10 +4580,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4621,10 +4609,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4650,10 +4638,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4679,10 +4667,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4708,10 +4696,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4737,10 +4725,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>20</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -4766,10 +4754,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4795,10 +4783,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4824,10 +4812,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4853,10 +4841,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4882,10 +4870,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4911,10 +4899,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4940,10 +4928,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4969,10 +4957,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4998,10 +4986,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5027,10 +5015,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F120" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5056,10 +5044,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5085,10 +5073,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F122" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5114,10 +5102,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F123" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5143,10 +5131,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F124" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5172,10 +5160,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F125" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5201,10 +5189,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F126" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5230,10 +5218,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5259,10 +5247,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F128" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5288,10 +5276,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F129" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5317,10 +5305,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F130" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5346,10 +5334,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F131" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5375,10 +5363,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F132" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5404,10 +5392,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F133" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5433,10 +5421,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F134" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5462,10 +5450,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F135" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5491,10 +5479,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F136" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5520,10 +5508,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F137" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5549,10 +5537,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F138" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5578,10 +5566,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F139" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5607,10 +5595,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F140" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5636,10 +5624,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F141" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5665,10 +5653,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F142" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5694,10 +5682,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F143" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5723,10 +5711,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F144" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5752,10 +5740,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F145" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5781,10 +5769,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F146" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5810,10 +5798,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F147" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5839,10 +5827,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F148" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5868,10 +5856,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F149" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5897,10 +5885,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F150" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5926,10 +5914,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F151" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5955,10 +5943,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F152" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5984,10 +5972,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F153" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6013,10 +6001,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F154" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6042,10 +6030,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F155" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6071,10 +6059,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F156" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6100,10 +6088,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F157" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6129,10 +6117,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F158" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6158,10 +6146,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F159" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6187,10 +6175,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F160" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6216,10 +6204,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F161" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G161" t="n">
         <v>2</v>
@@ -6245,10 +6233,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F162" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6274,10 +6262,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F163" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6303,10 +6291,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F164" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6332,10 +6320,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F165" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6361,10 +6349,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F166" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6390,10 +6378,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F167" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6419,10 +6407,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F168" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6448,10 +6436,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F169" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6477,10 +6465,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F170" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6506,10 +6494,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F171" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6535,10 +6523,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F172" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6564,10 +6552,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F173" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6593,10 +6581,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F174" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6622,10 +6610,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F175" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6651,10 +6639,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F176" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6680,10 +6668,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F177" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6709,10 +6697,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F178" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6738,10 +6726,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F179" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6767,10 +6755,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F180" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6796,10 +6784,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F181" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6825,10 +6813,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F182" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6854,10 +6842,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F183" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6883,10 +6871,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F184" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6912,10 +6900,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F185" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6941,10 +6929,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F186" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -6970,10 +6958,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F187" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -6999,10 +6987,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F188" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7028,10 +7016,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F189" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7057,10 +7045,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F190" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7086,10 +7074,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F191" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7115,10 +7103,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F192" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7144,10 +7132,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F193" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7173,10 +7161,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F194" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7202,10 +7190,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F195" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7231,10 +7219,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F196" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G196" t="n">
         <v>2</v>
@@ -7260,10 +7248,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F197" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7289,10 +7277,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F198" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G198" t="n">
         <v>2</v>
@@ -7318,10 +7306,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F199" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7347,10 +7335,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F200" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7376,10 +7364,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F201" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G201" t="n">
         <v>2</v>
@@ -7405,10 +7393,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F202" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>

--- a/xlsx/保民官_intext.xlsx
+++ b/xlsx/保民官_intext.xlsx
@@ -29,7 +29,7 @@
     <t>羅馬共和國</t>
   </si>
   <si>
-    <t>政策_政策_政治_保民官</t>
+    <t>体育运动_体育运动_古罗马_保民官</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B</t>
